--- a/model/data/router_generated.xlsx
+++ b/model/data/router_generated.xlsx
@@ -578,7 +578,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Nhà cấp 4 có dành cho người thu nhập thấp?</t>
+          <t>Tôi muốn biết về các loại giấy tờ cần có khi chuyển nhượng bất động sản.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -818,7 +818,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Bạn nghĩ làm thế nào để tiết kiệm chi phí mua nhà?</t>
+          <t>Bạn có thể giải thích sự khác biệt giữa sổ hồng và sổ đỏ không?</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[NORMAL_CHAT] Tất nhiên, bạn có thể hỏi tôi bất cứ câu hỏi nào về bất động sản. Tôi sẽ cố gắng giúp bạn hết sức có thể.</t>
+          <t>[NORMAL_CHAT]</t>
         </is>
       </c>
       <c r="D21" t="b">
@@ -1648,8 +1648,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>[SEARCH_HOUSE] 
-Tuy nhiên, để giúp bạn tìm một căn hộ chung cư cao cấp ở TP.HCM với diện tích khoảng 70-90m², tôi cần thêm một số thông tin như: vị trí mong muốn (quận/huyện), mức giá bạn dự định chi trả, và các tiện ích cần thiết khác (như trường học, bệnh viện, trung tâm thương mại, v.v.). Bạn có thể cung cấp thêm thông tin này cho tôi không?</t>
+          <t>[SEARCH_HOUSE]</t>
         </is>
       </c>
       <c r="D61" t="b">
@@ -1729,8 +1728,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>[SEARCH_HOUSE] 
-Tuy nhiên, để trả lời câu hỏi của bạn, tôi cần thêm một số thông tin như: vị trí cụ thể (quận, phường), mức giá bạn dự định đầu tư, và các yêu cầu khác (như tiện ích, giao thông, an ninh...). Bạn có thể cung cấp thêm cho tôi không?</t>
+          <t>[SEARCH_HOUSE]</t>
         </is>
       </c>
       <c r="D65" t="b">
@@ -1750,7 +1748,10 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>[NORMAL_CHAT]</t>
+          <t>[NORMAL_CHAT] 
+(Note: It seems there might be a typo in your question. Did you mean to ask: "What do you think about buying a studio apartment instead of a 2-bedroom apartment?") 
+If you meant to ask about buying a studio apartment, here is the revised response:
+[NORMAL_CHAT]</t>
         </is>
       </c>
       <c r="D66" t="b">
@@ -1760,7 +1761,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Theo bạn, nên chọn chung cư tầng cao hay tầng thấp thì tốt hơn?</t>
+          <t>Bạn có thể cho tôi biết quy trình thẩm định giá trị bất động sản là như thế nào không?</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1930,11 +1931,11 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>[SEARCH_LAND]</t>
+          <t>[SEARCH_HOUSE]</t>
         </is>
       </c>
       <c r="D75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -1970,8 +1971,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>[SEARCH_HOUSE] 
-Tuy nhiên, để trả lời câu hỏi của bạn một cách cụ thể hơn, tôi cần biết thêm một số thông tin như: vị trí mong muốn, tiện ích cần thiết (như gần trường học, bệnh viện, siêu thị, v.v.v), ngân sách dự kiến, và các yêu cầu khác nếu có. Bạn có thể cung cấp thêm cho tôi không?</t>
+          <t>[SEARCH_HOUSE]</t>
         </is>
       </c>
       <c r="D77" t="b">
@@ -2051,18 +2051,11 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>[INVESTMENT_ADVICE] 
-Đầu tư đất nền trong khu công nghiệp có thể mang lại lợi nhuận cao, nhưng cũng phụ thuộc vào nhiều yếu tố như vị trí, quy hoạch, cơ sở hạ tầng, và nhu cầu thị trường. Dưới đây là một số điểm cần xem xét:
-1. **Vị trí**: Đất nền trong khu công nghiệp gần các trục giao thông chính, cảng, và các dịch vụ hỗ trợ sẽ có tiềm năng tăng giá cao hơn.
-2. **Quy hoạch và pháp lý**: Đảmắc rằng khu công nghiệp đã được quy hoạch và có pháp lý rõ ràng sẽ an an toàn hơn và có tiềm năng tăng giá cao hơn.
-3. **Cơ sở hạ tầng**: Khu công nghiệp có cơ sở hạ tầng hoàn thiện (đường xá, điện, nước, hệ thống xử lý nước thải) sẽ thu hút nhiều nhà đầu tư và doanh nghiệp hơn.
-4. **Nhu cầu thị trường**: Nhu cầu về đất nền trong khu công nghiệp cao, đặc biệt là khi có nhiều doanh nghiệp đang tìm kiếm địa điểm để xây dựng nhà máy hoặc kho bãi, sẽ tăng giá trị của đất.
-5. **Rủi ro**: Đầu tư đất nền trong khu công nghiệp cũng có rủi ro, bao gồm rủi ro về pháp lý, quy hoạch thay đổi, và thị trường bất động sản.
-Nếu bạn cân nhắc đầu tư, hãy nghiên cứu kỹ lưỡng và tham khảo ý kiến của chuyên gia để đưa ra quyết định phù hợp.</t>
+          <t>[NORMAL_CHAT]</t>
         </is>
       </c>
       <c r="D81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -2138,32 +2131,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>[NORMAL_CHAT]
-Sống ở chung cư và nhà phố đều có những ưu và nhược điểm riêng. Dưới đây là một số điểm bạn có thể cân nhắc:
-**Chung cư:**
-- **Ưu điểm:**
-  - **An ninh:** Thường có bảo vệ 24/7, camera an ninh, và hệ thống khóa an toàn.
-  - **Tiện ích:** Nhiều chung cư có các tiện ích như hồ bơi, phòng tập gym, khu vui chơi trẻ em, và khu vực sinh hoạt chung cư.
-  - **Giữ Dụng:** Chi phí bảo trì, và bảo phí quản lý thường xuyên.
-  - **Sạch sẽ:** Khu vực chung cư thường được vệ sinh định kỳ.
-  - **Tiện ích:** Dễ dàng tiếp cận các dịch vụ như siêu thị, trường học, và bệnh viện.
-- **Nhược điểm:**
-  - **Diện tích:** Thường nhỏ hơn so với nhà phố.
-  - **Phí quản lý:** Phí quản lý chung cư có thể caoh.
-  - **Giới hạn về sửa chữa và cải tạo:** Có thể có quy định về việc sửa chữa và cải tạo.
-  - **Tiếng ồn:** Có thể bị ảnh hưởng bởi tiếng ồn từ hàng xóm.
-**Nhà phố:**
-- **Ưu điểm:**
-  - **Diện tích:** Thường lớn hơn, có sân vườn.
-  - **Tự do:** Tự do hơn trong việc sửa chữa và cải tạo.
-  - **Khu vực riêng tư:**Ít bị ảnh hưởng bởi tiếng ồn từ hàng xóm.
-  - **Giá trị đầu tư:**Nhà phố thường có giá trị đầu tư cao hơn.
-- **Nhược điểm:**
-  - **An ninh:** Có thể kém an ninh hơn so với chung cư.
-  - **Tiện ích:**Có thể xa các tiện ích như hồ bơi, phòng tập gym.
-  - **Phí bảo trì:**Phí bảo trì và vệ sinh cao hơn.
-  - **Quản lý:**Cần tự quản lý và bảo trì nhà cửa.
-Hy vọng những thông tin này giúp bạn có cái nhìn tổng quan hơn về việc chọn nơi ở.</t>
+          <t>[NORMAL_CHAT]</t>
         </is>
       </c>
       <c r="D85" t="b">
@@ -2183,8 +2151,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>[NORMAL_CHAT]
-Tác giả của bài "Tiến quân ca" là nhạc sĩ Văn Cao, sinh năm 1923.</t>
+          <t>[NORMAL_CHAT]</t>
         </is>
       </c>
       <c r="D86" t="b">
@@ -2244,7 +2211,8 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>[SEARCH_HOUSE]</t>
+          <t>[SEARCH_HOUSE ] 
+(Note: It seems there is a typo in the response, it should be [SEARCH_HOUSE] instead of [ SEARCH hOUSE ])</t>
         </is>
       </c>
       <c r="D89" t="b">
@@ -2444,21 +2412,11 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>[NORMAL_CHAT]
-Đà Lạt có nhiều khu vực đáng sống, tùy thuộc vào nhu cầu và sở thích cá nhân của bạn. Dưới đây là một số khu vực phổ biến:
-1. **Trung tâm thành phố:**
-   - **Phường 1, 2, 3, 4, 5, 6, 7, 8, 9, 10:** Đây là các phường trung tâm, nơi có nhiều tiện ích như chợ, siêu thị, nhà hàng, quán cà phê, và các dịch vụ khác. Phù hợp cho những người thích cuộc sống sôi động và thuận tiện.
-2. **Khu vực ngoại thành:**
-   - **Phường 11, 12, 13, 14, 15:** Các phường ngoại thành phố thường yên tĩnh hơn, phù hợp cho những người thích không gian yên tĩnh và gần gũi với thiên nhiên. Giá nhà ở đây thường rẻ hơn so với trung tâm.
-3. **Khu vực ngoại thành:**
-   - **Xã Lạc Dương, Đạ Oai, Đạ Ròn:** Các xã ngoại thành thường có không gian rộng lớn, nhiều cây xanh, và ít ồn ào. Phù hợp cho những người thích sống gần gũi với thiên nhiên và có không gian riêng tư.
-4. **Khu vực ven hồ:**
-   - **Khu vực hồ Xuân Hương, hồ Than Thở:** Các khu vực này có không gian đẹp, yên tĩnh, và phù hợp cho những người thích sống gần hồ nước.
-Lựa chọn khu vực phù hợp nhất sẽ phụ thuộc vào nhu cầu về tiện ích, không gian sống, và ngân sách của bạn.</t>
+          <t>[SEARCH_HOUSE]</t>
         </is>
       </c>
       <c r="D99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -2474,12 +2432,11 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>[NORMAL_CHAT]
-Quận Hà Đông nằm ở phía Tây Nam của thành phố Hà Nội, cách trung tâm khoảng 10-15km. Tùy thuộc vào vị trí cụ thể của nhà bạn, khoảng cách đến trung tâm có thể thay đổi. Giao thông công cộng ở Hà Đông khá thuận tiện, có nhiều tuyến xe bus và tàu điện trên cao, giúp việc di chuyển đến trung tâm thành phố trở nên dễ dàng. Nếu bạn làm việc ở trung tâm thành phố, việc chọn nhà ở Quận Hà Đông có thể là một lựa chọn hợp lý.</t>
+          <t>[SEARCH_HOUSE]</t>
         </is>
       </c>
       <c r="D100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
